--- a/InputData/hydgn/HPEbP/Hydgn Production Eff by Pathway.xlsx
+++ b/InputData/hydgn/HPEbP/Hydgn Production Eff by Pathway.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/template_state/hydgn/hpebp/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\RMI\RMI_all_states\FL\hydgn\HPEbP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3327C8E8-ED11-B84A-99B2-0E45A8AC835B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5550F9F2-0431-4075-81AC-E04421EECEB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25820" windowHeight="11980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="375" windowWidth="13680" windowHeight="17025" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="IEA Data" sheetId="3" r:id="rId2"/>
     <sheet name="HPEbP" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterate="1" iterateDelta="1.0000000000000001E-5"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="47">
   <si>
     <t>HPEbP Hydrogen Production Efficiency by Pathway</t>
   </si>
@@ -174,6 +174,9 @@
   </si>
   <si>
     <t>Appendix D (biomass), Appendix H (natural gas), Appendix I (electrolysis), and Appendix J (coal)</t>
+  </si>
+  <si>
+    <t>Florida</t>
   </si>
 </sst>
 </file>
@@ -253,7 +256,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -272,7 +275,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -561,24 +563,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="98.6640625" customWidth="1"/>
+    <col min="2" max="2" width="98.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="15">
-        <v>44307</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="14">
+        <v>44811</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -586,112 +591,112 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" s="3">
         <v>2019</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <v>2013</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B14" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>36</v>
       </c>
@@ -711,18 +716,18 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+      <selection activeCell="F7" sqref="D7:F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="25.33203125" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" customWidth="1"/>
-    <col min="5" max="5" width="10.1640625" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" customWidth="1"/>
+    <col min="1" max="3" width="25.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>21</v>
       </c>
@@ -742,7 +747,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -762,7 +767,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>24</v>
       </c>
@@ -779,7 +784,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>26</v>
       </c>
@@ -796,7 +801,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9"/>
       <c r="B5" s="9" t="s">
         <v>28</v>
@@ -814,7 +819,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -834,7 +839,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>24</v>
       </c>
@@ -851,7 +856,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>26</v>
       </c>
@@ -868,7 +873,7 @@
         <v>4.7E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9"/>
       <c r="B9" s="9" t="s">
         <v>30</v>
@@ -886,7 +891,7 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -906,7 +911,7 @@
         <v>2670</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>24</v>
       </c>
@@ -923,7 +928,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>26</v>
       </c>
@@ -940,7 +945,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9"/>
       <c r="B13" s="9" t="s">
         <v>30</v>
@@ -958,8 +963,8 @@
         <v>20.2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="16" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>32</v>
       </c>
@@ -973,7 +978,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>39</v>
       </c>
@@ -998,17 +1003,17 @@
   </sheetPr>
   <dimension ref="A1:AI6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H17:H18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.1640625" customWidth="1"/>
-    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.140625" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>37</v>
       </c>
@@ -1054,7 +1059,7 @@
       <c r="O1">
         <v>2030</v>
       </c>
-      <c r="P1" s="14">
+      <c r="P1" s="13">
         <v>2031</v>
       </c>
       <c r="Q1">
@@ -1115,7 +1120,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1175,229 +1180,229 @@
         <f>N2*'IEA Data'!$D$18</f>
         <v>0.72283380681818132</v>
       </c>
-      <c r="P2" s="13">
+      <c r="P2" s="12">
         <f>O2*'IEA Data'!$E$18</f>
         <v>0.7253666557451437</v>
       </c>
-      <c r="Q2" s="12">
+      <c r="Q2" s="6">
         <f>P2*'IEA Data'!$E$18</f>
         <v>0.72790837991234292</v>
       </c>
-      <c r="R2" s="12">
+      <c r="R2" s="6">
         <f>Q2*'IEA Data'!$E$18</f>
         <v>0.73045901041910288</v>
       </c>
-      <c r="S2" s="12">
+      <c r="S2" s="6">
         <f>R2*'IEA Data'!$E$18</f>
         <v>0.73301857847372121</v>
       </c>
-      <c r="T2" s="12">
+      <c r="T2" s="6">
         <f>S2*'IEA Data'!$E$18</f>
         <v>0.73558711539385124</v>
       </c>
-      <c r="U2" s="12">
+      <c r="U2" s="6">
         <f>T2*'IEA Data'!$E$18</f>
         <v>0.73816465260688491</v>
       </c>
-      <c r="V2" s="12">
+      <c r="V2" s="6">
         <f>U2*'IEA Data'!$E$18</f>
         <v>0.74075122165033747</v>
       </c>
-      <c r="W2" s="12">
+      <c r="W2" s="6">
         <f>V2*'IEA Data'!$E$18</f>
         <v>0.74334685417223334</v>
       </c>
-      <c r="X2" s="12">
+      <c r="X2" s="6">
         <f>W2*'IEA Data'!$E$18</f>
         <v>0.74595158193149347</v>
       </c>
-      <c r="Y2" s="12">
+      <c r="Y2" s="6">
         <f>X2*'IEA Data'!$E$18</f>
         <v>0.74856543679832355</v>
       </c>
-      <c r="Z2" s="12">
+      <c r="Z2" s="6">
         <f>Y2*'IEA Data'!$E$18</f>
         <v>0.7511884507546045</v>
       </c>
-      <c r="AA2" s="12">
+      <c r="AA2" s="6">
         <f>Z2*'IEA Data'!$E$18</f>
         <v>0.75382065589428315</v>
       </c>
-      <c r="AB2" s="12">
+      <c r="AB2" s="6">
         <f>AA2*'IEA Data'!$E$18</f>
         <v>0.7564620844237655</v>
       </c>
-      <c r="AC2" s="12">
+      <c r="AC2" s="6">
         <f>AB2*'IEA Data'!$E$18</f>
         <v>0.75911276866231048</v>
       </c>
-      <c r="AD2" s="12">
+      <c r="AD2" s="6">
         <f>AC2*'IEA Data'!$E$18</f>
         <v>0.76177274104242554</v>
       </c>
-      <c r="AE2" s="12">
+      <c r="AE2" s="6">
         <f>AD2*'IEA Data'!$E$18</f>
         <v>0.76444203411026324</v>
       </c>
-      <c r="AF2" s="12">
+      <c r="AF2" s="6">
         <f>AE2*'IEA Data'!$E$18</f>
         <v>0.76712068052601967</v>
       </c>
-      <c r="AG2" s="12">
+      <c r="AG2" s="6">
         <f>AF2*'IEA Data'!$E$18</f>
         <v>0.76980871306433407</v>
       </c>
-      <c r="AH2" s="12">
+      <c r="AH2" s="6">
         <f>AG2*'IEA Data'!$E$18</f>
         <v>0.77250616461468979</v>
       </c>
-      <c r="AI2" s="12">
+      <c r="AI2" s="6">
         <f>AH2*'IEA Data'!$E$18</f>
         <v>0.77521306818181679</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="6">
-        <f>118/(162+2+46)</f>
-        <v>0.56190476190476191</v>
+        <f>118/(162+2)</f>
+        <v>0.71951219512195119</v>
       </c>
       <c r="C3" s="6">
         <f>B3</f>
-        <v>0.56190476190476191</v>
+        <v>0.71951219512195119</v>
       </c>
       <c r="D3" s="6">
         <f t="shared" ref="D3:O3" si="0">C3</f>
-        <v>0.56190476190476191</v>
+        <v>0.71951219512195119</v>
       </c>
       <c r="E3" s="6">
         <f t="shared" si="0"/>
-        <v>0.56190476190476191</v>
+        <v>0.71951219512195119</v>
       </c>
       <c r="F3" s="6">
         <f t="shared" si="0"/>
-        <v>0.56190476190476191</v>
+        <v>0.71951219512195119</v>
       </c>
       <c r="G3" s="6">
         <f t="shared" si="0"/>
-        <v>0.56190476190476191</v>
+        <v>0.71951219512195119</v>
       </c>
       <c r="H3" s="6">
         <f t="shared" si="0"/>
-        <v>0.56190476190476191</v>
+        <v>0.71951219512195119</v>
       </c>
       <c r="I3" s="6">
         <f t="shared" si="0"/>
-        <v>0.56190476190476191</v>
+        <v>0.71951219512195119</v>
       </c>
       <c r="J3" s="6">
         <f t="shared" si="0"/>
-        <v>0.56190476190476191</v>
+        <v>0.71951219512195119</v>
       </c>
       <c r="K3" s="6">
         <f t="shared" si="0"/>
-        <v>0.56190476190476191</v>
+        <v>0.71951219512195119</v>
       </c>
       <c r="L3" s="6">
         <f t="shared" si="0"/>
-        <v>0.56190476190476191</v>
+        <v>0.71951219512195119</v>
       </c>
       <c r="M3" s="6">
         <f t="shared" si="0"/>
-        <v>0.56190476190476191</v>
+        <v>0.71951219512195119</v>
       </c>
       <c r="N3" s="6">
         <f t="shared" si="0"/>
-        <v>0.56190476190476191</v>
+        <v>0.71951219512195119</v>
       </c>
       <c r="O3" s="6">
         <f t="shared" si="0"/>
-        <v>0.56190476190476191</v>
-      </c>
-      <c r="P3" s="13">
+        <v>0.71951219512195119</v>
+      </c>
+      <c r="P3" s="12">
         <f>O3</f>
-        <v>0.56190476190476191</v>
-      </c>
-      <c r="Q3" s="12">
+        <v>0.71951219512195119</v>
+      </c>
+      <c r="Q3" s="6">
         <f t="shared" ref="Q3:AI3" si="1">P3</f>
-        <v>0.56190476190476191</v>
-      </c>
-      <c r="R3" s="12">
+        <v>0.71951219512195119</v>
+      </c>
+      <c r="R3" s="6">
         <f t="shared" si="1"/>
-        <v>0.56190476190476191</v>
-      </c>
-      <c r="S3" s="12">
+        <v>0.71951219512195119</v>
+      </c>
+      <c r="S3" s="6">
         <f t="shared" si="1"/>
-        <v>0.56190476190476191</v>
-      </c>
-      <c r="T3" s="12">
+        <v>0.71951219512195119</v>
+      </c>
+      <c r="T3" s="6">
         <f t="shared" si="1"/>
-        <v>0.56190476190476191</v>
-      </c>
-      <c r="U3" s="12">
+        <v>0.71951219512195119</v>
+      </c>
+      <c r="U3" s="6">
         <f t="shared" si="1"/>
-        <v>0.56190476190476191</v>
-      </c>
-      <c r="V3" s="12">
+        <v>0.71951219512195119</v>
+      </c>
+      <c r="V3" s="6">
         <f t="shared" si="1"/>
-        <v>0.56190476190476191</v>
-      </c>
-      <c r="W3" s="12">
+        <v>0.71951219512195119</v>
+      </c>
+      <c r="W3" s="6">
         <f t="shared" si="1"/>
-        <v>0.56190476190476191</v>
-      </c>
-      <c r="X3" s="12">
+        <v>0.71951219512195119</v>
+      </c>
+      <c r="X3" s="6">
         <f t="shared" si="1"/>
-        <v>0.56190476190476191</v>
-      </c>
-      <c r="Y3" s="12">
+        <v>0.71951219512195119</v>
+      </c>
+      <c r="Y3" s="6">
         <f t="shared" si="1"/>
-        <v>0.56190476190476191</v>
-      </c>
-      <c r="Z3" s="12">
+        <v>0.71951219512195119</v>
+      </c>
+      <c r="Z3" s="6">
         <f t="shared" si="1"/>
-        <v>0.56190476190476191</v>
-      </c>
-      <c r="AA3" s="12">
+        <v>0.71951219512195119</v>
+      </c>
+      <c r="AA3" s="6">
         <f t="shared" si="1"/>
-        <v>0.56190476190476191</v>
-      </c>
-      <c r="AB3" s="12">
+        <v>0.71951219512195119</v>
+      </c>
+      <c r="AB3" s="6">
         <f t="shared" si="1"/>
-        <v>0.56190476190476191</v>
-      </c>
-      <c r="AC3" s="12">
+        <v>0.71951219512195119</v>
+      </c>
+      <c r="AC3" s="6">
         <f t="shared" si="1"/>
-        <v>0.56190476190476191</v>
-      </c>
-      <c r="AD3" s="12">
+        <v>0.71951219512195119</v>
+      </c>
+      <c r="AD3" s="6">
         <f t="shared" si="1"/>
-        <v>0.56190476190476191</v>
-      </c>
-      <c r="AE3" s="12">
+        <v>0.71951219512195119</v>
+      </c>
+      <c r="AE3" s="6">
         <f t="shared" si="1"/>
-        <v>0.56190476190476191</v>
-      </c>
-      <c r="AF3" s="12">
+        <v>0.71951219512195119</v>
+      </c>
+      <c r="AF3" s="6">
         <f t="shared" si="1"/>
-        <v>0.56190476190476191</v>
-      </c>
-      <c r="AG3" s="12">
+        <v>0.71951219512195119</v>
+      </c>
+      <c r="AG3" s="6">
         <f t="shared" si="1"/>
-        <v>0.56190476190476191</v>
-      </c>
-      <c r="AH3" s="12">
+        <v>0.71951219512195119</v>
+      </c>
+      <c r="AH3" s="6">
         <f t="shared" si="1"/>
-        <v>0.56190476190476191</v>
-      </c>
-      <c r="AI3" s="12">
+        <v>0.71951219512195119</v>
+      </c>
+      <c r="AI3" s="6">
         <f t="shared" si="1"/>
-        <v>0.56190476190476191</v>
-      </c>
-    </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
+        <v>0.71951219512195119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1457,88 +1462,88 @@
         <f t="shared" si="2"/>
         <v>0.57004830917874394</v>
       </c>
-      <c r="P4" s="13">
-        <f t="shared" si="2"/>
-        <v>0.57004830917874394</v>
-      </c>
-      <c r="Q4" s="12">
+      <c r="P4" s="12">
+        <f t="shared" si="2"/>
+        <v>0.57004830917874394</v>
+      </c>
+      <c r="Q4" s="6">
         <f t="shared" ref="Q4:AI4" si="3">P4</f>
         <v>0.57004830917874394</v>
       </c>
-      <c r="R4" s="12">
+      <c r="R4" s="6">
         <f t="shared" si="3"/>
         <v>0.57004830917874394</v>
       </c>
-      <c r="S4" s="12">
+      <c r="S4" s="6">
         <f t="shared" si="3"/>
         <v>0.57004830917874394</v>
       </c>
-      <c r="T4" s="12">
+      <c r="T4" s="6">
         <f t="shared" si="3"/>
         <v>0.57004830917874394</v>
       </c>
-      <c r="U4" s="12">
+      <c r="U4" s="6">
         <f t="shared" si="3"/>
         <v>0.57004830917874394</v>
       </c>
-      <c r="V4" s="12">
+      <c r="V4" s="6">
         <f t="shared" si="3"/>
         <v>0.57004830917874394</v>
       </c>
-      <c r="W4" s="12">
+      <c r="W4" s="6">
         <f t="shared" si="3"/>
         <v>0.57004830917874394</v>
       </c>
-      <c r="X4" s="12">
+      <c r="X4" s="6">
         <f t="shared" si="3"/>
         <v>0.57004830917874394</v>
       </c>
-      <c r="Y4" s="12">
+      <c r="Y4" s="6">
         <f t="shared" si="3"/>
         <v>0.57004830917874394</v>
       </c>
-      <c r="Z4" s="12">
+      <c r="Z4" s="6">
         <f t="shared" si="3"/>
         <v>0.57004830917874394</v>
       </c>
-      <c r="AA4" s="12">
+      <c r="AA4" s="6">
         <f t="shared" si="3"/>
         <v>0.57004830917874394</v>
       </c>
-      <c r="AB4" s="12">
+      <c r="AB4" s="6">
         <f t="shared" si="3"/>
         <v>0.57004830917874394</v>
       </c>
-      <c r="AC4" s="12">
+      <c r="AC4" s="6">
         <f t="shared" si="3"/>
         <v>0.57004830917874394</v>
       </c>
-      <c r="AD4" s="12">
+      <c r="AD4" s="6">
         <f t="shared" si="3"/>
         <v>0.57004830917874394</v>
       </c>
-      <c r="AE4" s="12">
+      <c r="AE4" s="6">
         <f t="shared" si="3"/>
         <v>0.57004830917874394</v>
       </c>
-      <c r="AF4" s="12">
+      <c r="AF4" s="6">
         <f t="shared" si="3"/>
         <v>0.57004830917874394</v>
       </c>
-      <c r="AG4" s="12">
+      <c r="AG4" s="6">
         <f t="shared" si="3"/>
         <v>0.57004830917874394</v>
       </c>
-      <c r="AH4" s="12">
+      <c r="AH4" s="6">
         <f t="shared" si="3"/>
         <v>0.57004830917874394</v>
       </c>
-      <c r="AI4" s="12">
+      <c r="AI4" s="6">
         <f t="shared" si="3"/>
         <v>0.57004830917874394</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1598,88 +1603,88 @@
         <f t="shared" si="2"/>
         <v>0.46274509803921571</v>
       </c>
-      <c r="P5" s="13">
-        <f t="shared" si="2"/>
-        <v>0.46274509803921571</v>
-      </c>
-      <c r="Q5" s="12">
+      <c r="P5" s="12">
+        <f t="shared" si="2"/>
+        <v>0.46274509803921571</v>
+      </c>
+      <c r="Q5" s="6">
         <f t="shared" ref="Q5:AI5" si="4">P5</f>
         <v>0.46274509803921571</v>
       </c>
-      <c r="R5" s="12">
+      <c r="R5" s="6">
         <f t="shared" si="4"/>
         <v>0.46274509803921571</v>
       </c>
-      <c r="S5" s="12">
+      <c r="S5" s="6">
         <f t="shared" si="4"/>
         <v>0.46274509803921571</v>
       </c>
-      <c r="T5" s="12">
+      <c r="T5" s="6">
         <f t="shared" si="4"/>
         <v>0.46274509803921571</v>
       </c>
-      <c r="U5" s="12">
+      <c r="U5" s="6">
         <f t="shared" si="4"/>
         <v>0.46274509803921571</v>
       </c>
-      <c r="V5" s="12">
+      <c r="V5" s="6">
         <f t="shared" si="4"/>
         <v>0.46274509803921571</v>
       </c>
-      <c r="W5" s="12">
+      <c r="W5" s="6">
         <f t="shared" si="4"/>
         <v>0.46274509803921571</v>
       </c>
-      <c r="X5" s="12">
+      <c r="X5" s="6">
         <f t="shared" si="4"/>
         <v>0.46274509803921571</v>
       </c>
-      <c r="Y5" s="12">
+      <c r="Y5" s="6">
         <f t="shared" si="4"/>
         <v>0.46274509803921571</v>
       </c>
-      <c r="Z5" s="12">
+      <c r="Z5" s="6">
         <f t="shared" si="4"/>
         <v>0.46274509803921571</v>
       </c>
-      <c r="AA5" s="12">
+      <c r="AA5" s="6">
         <f t="shared" si="4"/>
         <v>0.46274509803921571</v>
       </c>
-      <c r="AB5" s="12">
+      <c r="AB5" s="6">
         <f t="shared" si="4"/>
         <v>0.46274509803921571</v>
       </c>
-      <c r="AC5" s="12">
+      <c r="AC5" s="6">
         <f t="shared" si="4"/>
         <v>0.46274509803921571</v>
       </c>
-      <c r="AD5" s="12">
+      <c r="AD5" s="6">
         <f t="shared" si="4"/>
         <v>0.46274509803921571</v>
       </c>
-      <c r="AE5" s="12">
+      <c r="AE5" s="6">
         <f t="shared" si="4"/>
         <v>0.46274509803921571</v>
       </c>
-      <c r="AF5" s="12">
+      <c r="AF5" s="6">
         <f t="shared" si="4"/>
         <v>0.46274509803921571</v>
       </c>
-      <c r="AG5" s="12">
+      <c r="AG5" s="6">
         <f t="shared" si="4"/>
         <v>0.46274509803921571</v>
       </c>
-      <c r="AH5" s="12">
+      <c r="AH5" s="6">
         <f t="shared" si="4"/>
         <v>0.46274509803921571</v>
       </c>
-      <c r="AI5" s="12">
+      <c r="AI5" s="6">
         <f t="shared" si="4"/>
         <v>0.46274509803921571</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1738,83 +1743,83 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P6" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q6" s="12">
+      <c r="P6" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="6">
         <f t="shared" ref="Q6:AI6" si="5">P6</f>
         <v>0</v>
       </c>
-      <c r="R6" s="12">
+      <c r="R6" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="S6" s="12">
+      <c r="S6" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="T6" s="12">
+      <c r="T6" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U6" s="12">
+      <c r="U6" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="V6" s="12">
+      <c r="V6" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="W6" s="12">
+      <c r="W6" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="X6" s="12">
+      <c r="X6" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Y6" s="12">
+      <c r="Y6" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Z6" s="12">
+      <c r="Z6" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AA6" s="12">
+      <c r="AA6" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AB6" s="12">
+      <c r="AB6" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AC6" s="12">
+      <c r="AC6" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AD6" s="12">
+      <c r="AD6" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AE6" s="12">
+      <c r="AE6" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AF6" s="12">
+      <c r="AF6" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AG6" s="12">
+      <c r="AG6" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AH6" s="12">
+      <c r="AH6" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AI6" s="12">
+      <c r="AI6" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
